--- a/Excel/file1.xlsx
+++ b/Excel/file1.xlsx
@@ -23,7 +23,7 @@
     <t>Meet the finalists of the 2024 Impact Awards</t>
   </si>
   <si>
-    <t>Cognizant Flowsource™ will fuel the next generation of enterprise software engineering</t>
+    <t>Cognizant shines at the Times Group Global Business Summit (GBS)</t>
   </si>
   <si>
     <t>CEO blog: Elevating Cognizant’s stature on the world stage</t>
